--- a/java/spring-security/doc/acl.xlsx
+++ b/java/spring-security/doc/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="61">
   <si>
     <t>オーナー</t>
     <phoneticPr fontId="2"/>
@@ -206,22 +206,173 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>admin パーミッション拒否</t>
-    <rPh sb="13" eb="15">
+    <t>パーミッションなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AccessDenied</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NotFound</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin 付与</t>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin 拒否</t>
+    <rPh sb="6" eb="8">
       <t>キョヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パーミッションなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
+    <t>admin なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般 or オーナーシップの変更なら、オーナーであれば可</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれの必須権限を持っていれば可</t>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin か付与されていれば可</t>
+    <rPh sb="7" eb="9">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin 拒否の場合は AccessDeniedException</t>
+    <rPh sb="6" eb="8">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin なしの場合は NotFoundException (ただしバグ)</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -252,15 +403,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,13 +425,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -863,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -875,99 +1055,654 @@
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -978,12 +1713,353 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="7" width="16.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/spring-security/doc/acl.xlsx
+++ b/java/spring-security/doc/acl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="67">
   <si>
     <t>オーナー</t>
     <phoneticPr fontId="2"/>
@@ -373,6 +373,39 @@
     <rPh sb="9" eb="11">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーナー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hoge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須権限</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADMIN権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PERMISSION_MANAGER</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1713,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G27"/>
+  <dimension ref="B3:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1725,10 +1758,13 @@
     <col min="2" max="2" width="11.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="7" width="16.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +1786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1845,17 @@
       <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="M7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1829,8 +1874,17 @@
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="M8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1847,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1864,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1881,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1949,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
